--- a/assets/report.xlsx
+++ b/assets/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramonoem/Documents/Project 2025/SystemClearPort/react-firebase-app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6764AF-F171-2947-93DA-77931878858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEED199-6900-444E-881E-02EDB6188ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{7D3AC89A-F4E0-4FC7-BAF2-2048D09300FD}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <r>
       <t xml:space="preserve">ព្រះរាជាណាចក្រកម្ពុជា
@@ -695,9 +695,6 @@
     <t>- លិខិតលេខ ០៧៧៩/២០ អគរ ចុះថ្ងៃទី ១៩ ខែ មិនា ឆ្នា ២០២០ របស់អគ្គនាយកដ្ឋានគយ និងរដ្ឋាករកម្ពុជា ។</t>
   </si>
   <si>
-    <t>ចុះ ថៃ្ងទី ២២ ខែ មករា ឆ្នាំ ២០១៦</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    - មុខទំនិញរថយន្តថ្មី ដូចមានលំអិតក្នុងតារាងភ្ជាប់ជាមួយ</t>
   </si>
   <si>
@@ -817,7 +814,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                    - សរុបចំនួន </t>
+      <t xml:space="preserve">                    - ផលិតនៅប្រទេសចិននាំចូលមកកម្ពុជាតាម </t>
     </r>
     <r>
       <rPr>
@@ -825,7 +822,61 @@
         <color rgb="FFFF0000"/>
         <rFont val="Khmer OS Siemreap"/>
       </rPr>
-      <t>12 UNITS</t>
+      <t>មាត់ច្រកកំពង់ផែអន្តរជាតិភ្នំពេញ (បញ្ចេញទំនិញនៅមាត់ច្រកភណ្ឌាគារគយមានដែនកំណត់សុវណ្ណភូមិ)</t>
+    </r>
+  </si>
+  <si>
+    <t>…........MOTORS (CAMBODIA) CO., LTD</t>
+  </si>
+  <si>
+    <t>NO. …................................................., CAMBODIA
+VAT: …........................, TEL: +…........................</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- VAT No: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…...................................</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                 តបតាមកម្មវត្ថុ និងយោងខាងលើ ខ្ញុំបាទតំណាងអោយក្រុមហ៊ុន</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>..............MOTORS (CAMBODIA) CO., LTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>សូមគោរពស្នើសុំឯកឧត្តមរដ្ឋមន្ត្រីប្រតិភូមេត្តាអនុញ្ញាតិអោយអនុវត្តអត្រាពន្ឋអនុគ្រោះក្រោមកិច្ចព្រមព្រៀងពាណិជ្ជកម្មសេរីអាស៊ាន-ចិន (ACFTA-CO FORM E) ដូចយោងខាងលើចំពោះការនាំចូល:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                 ខ្ញុំបាទសូមធានាអះអាងថារាល់ការប្រកាសនិងឯកសារគាំទ្រខាងលើសុទ្ធសឹងជាពត៌មាននិងជាឯកសារត្រឹមត្រូវនិងពិតប្រាកដ។ក្នុងករណីរកឃើញថាពត៌មាននិងឯកសារទាំងនេះមានការក្លែងបន្លំខុសពីការពិតខ្ញុំបាទតំណាងអោយក្រុមហ៊ុន</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>..................MOTORS (CAMBODIA) CO., LTD</t>
     </r>
     <r>
       <rPr>
@@ -833,7 +884,1143 @@
         <color theme="1"/>
         <rFont val="Khmer OS Siemreap"/>
       </rPr>
-      <t xml:space="preserve"> ទម្ងន់សរុប </t>
+      <t xml:space="preserve"> សូមទទួលពិន័យនិងទោសទណ្ឌផ្សេងទៀតតាមបញ្ញត្តិច្បាប់ជាធរមាន។</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">សំណើសុំអនុញ្ញាតដើម្បីដឹកជញ្ចូនឆ្លងកាត់ជាតិនូវ រថយន្តថ្មី ចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> គ្រឿង (ចង្កូតឆ្វេង) ផ្ទុកក្នុងកុងតឺន័រចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ទូរ ពីមាត់ច្រក សាខាគយ និង</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>រដ្ឋាករកំពង់ផែអន្តរជាតិភ្នំពេញ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទៅកាន់ភណ្ឌាគារគយមានដែនកំណត់របស់ក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD ដោយព្យួរពន្ធ និងអាករ ។</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរ/លិខិតឆ្លងដែនលេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">AC5014016 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">  ទូរស័ព្ទលេខ:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> 093 544 566</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ជាប្រធាន/អនុប្រធាន ក្រុមហ៊ុន/សហគ្រាស:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SUVANNAPHUM INVESTMENT CO., LTD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        នៃក្រុមហ៊ុន/សហគ្រាស:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…...............MOTORS (CAMBODIA) CO., LTD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           ខ្ញុំបាទ/នាងខ្ញុំ  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">   អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរ/លិខិតឆ្លងដែនលេខ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>:…...............................</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        អត្តសញ្ញាណកម្មសារពើពន្ធ(VAT)លេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…............................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទូរស័ព្ទលេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>….................................</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        មានអត្តសញ្ញាណកម្មសារពើពន្ធ(VAT)លេខ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>L001-901801901.............</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>........................</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរ/លិខិតឆ្លងដែនលេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>190228973</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">   ទូរស័ព្ទលេខ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>012 333 901</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       សម្រាប់មួយប្រតិវេទន៍គយឬច្រើនប្រតិបត្តិការនៅ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>……………………………………………………………………………………………</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ១. វិក្កយប័ត្រ(Invoice)លេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SMIL202507082324-P-C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ២. បញ្ជីវេចខ្ចប់(Packing List)លេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SMIL202507082324-P-C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ៣. អញ្ញាតប័ណ្ណ(B/L, AWB, TWB)លេខ:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SHAWD075720</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   ឈ្មោះ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Muol"/>
+      </rPr>
+      <t>WONGMONGKOL SRESTTAWIN</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ឈ្មោះ …....................... </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ខ្ញុំបាទ/នាងខ្ញុំ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…...............</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">  ភេទ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">ប្រុស </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>មានអត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…........................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> មានតួនាទី</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ជាបុគ្គលិកផ្នែករដ្ឋាបាល …......... MOTORS (CAMBODIA) CO., LTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT)លេខៈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…...................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទូរសព្ទ័លេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>.....................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>។</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          លោក </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ប៉ាង ចំរើន</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ភេទ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ប្រុស</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> សញ្ជាតិ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ខែ្មរ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> មាន ID Cards No. លេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>010033857 (01)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ចុះថ្ងៃទី  ២២ ខែ កុម្ភៈ ឆ្នាំ ២០១៦ និងផុតសុពលភាពដល់ថ្ងៃទី ២១ ខែ កុម្ភៈ ឆ្នាំ ២០២៦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទូរស័ព្ទលេខ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> 016 89 89 09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">  ដែលតំណាងអោយក្រុមហ៊ុន</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> SUVANNAPHUM INVESTMENT CO., LTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ដែលមានលេខអត្តសញ្ញាណកម្មសារពើពន្ធអ.ត.បលេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>L001901801901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទីតាំងនៅផ្លូវជាតិលេខ ១ គីឡូម៉ែតលេខ ៤៦ ភូមិ សំរោងក្អែរ  ឃុំ សំរោងធំ ស្រុកកៀនស្វាយ ខេត្តកណ្តាល ដើម្បីមកធ្វើការទំនាក់ទំនង និងទទួលខុសត្រូវក្នុងការបំពេញបែបបទយកទំនិញចេញ-ចូលតាមមាត់ច្រកកំពង់ផែអន្តរជាតិភ្នំពេញ ដោយមានភ្ជាប់មកជាមូយឯកសារដូចខាងក្រោមនេះ៖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         ក្រុមហ៊ុនសូមការអនុញ្ញាតដល់សម្ថកិច្ចប្រចាំការនៅមាត់ច្រកឃ្លាំងទំនិញទីលាន កំពង់ផែស្វយ័តភ្នំពេញ មេត្តាទទួលស្គាល់ និងអនុញ្ញាតអោយលោក </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ប៉ាង ចំរើន</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> បានបំពេញបែបបទទំនិញចេញ-ចូល និងបញ្ចេញទំនិញពីកំពង់ផែស្វយ័តភ្នំពេញ  ព្រមទាំងសន្យាគោរពតាមច្បាប់ជាធរមាន។</t>
+    </r>
+  </si>
+  <si>
+    <t>…...........................</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ខ្ញុំបាទ/នាងខ្ញុំ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>...............</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">  ភេទ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ប្រុស</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> មានអត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>......................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> មានតួនាទី</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">ជាបុគ្គលិកផ្នែករដ្ឋាបាល ....................MOTORS (CAMBODIA) CO., LTD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT)លេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>................................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទូរសព្ទ័លេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>.......................</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> និងជាម្ចាស់ទំនិញ សូមផ្ទេរសិទ្ទិជូន លោក/លោកស្រី </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>WONGMONGKOL SRESTTAWIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> កាន់លិខិតឆ្លងដែនលេខ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>AC5014016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទូរសព្ទ័លេខ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> 093 544 566</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ជាប្រធានក្រុមហ៊ុន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SUVANNAPHUM INVESTMENT CO., LTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT) លេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>L001-901801901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ជានីតិបុគ្គលជើងសារគយដែលមានរូបវន្តបុគ្គលជើងសាគយតំណាងលោក/លោកស្រី </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ផេង សុវណ្ណា</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>190228973</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ទូរសព្ទ័លេខ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>012 333 901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ប័ណ្ណសម្គាល់ជើងសាគយលេខ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>#699B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ផុតសុពលភាពថ្ងៃទី</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> 31 ខែ ធ្នូ ឆ្នាំ 2026 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>។ដើម្បីបំពេញបែបបទបញេ្ចញទំនិញនៅ នាយកដ្ឋានរបបគយ ។
+       តាមឯកសារភ្ជាប់ដូចខាងក្រោម៖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ១. អញ្ញាតប័ណ្ណ(B/L, AWB, TWB)លេខ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SHAWD075720</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ឈ្មោះ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>…..................</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        ខ្ញុំបាទ/នាងខ្ញុំ ...............  ភេទប្រុស មានអត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ...................... មានតួនាទីជាបុគ្គលិកផ្នែករដ្ឋាបាល ....................MOTORS (CAMBODIA) CO., LTD អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT)លេខៈ ................................ ទូរសព្ទ័លេខៈ ....................... និងជាម្ចាស់ទំនិញ សូមផ្ទេរសិទ្ទិជូន លោក/លោកស្រី WONGMONGKOL SRESTTAWIN កាន់លិខិតឆ្លងដែនលេខ: AC5014016 ទូរសព្ទ័លេខ 093 544 566 ជាប្រធានក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT) លេខៈ L001-901801901 ជានីតិបុគ្គលជើងសារគយដែលមានរូបវន្តបុគ្គលជើងសាគយតំណាងលោក/លោកស្រី ផេង សុវណ្ណា អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ 190228973 ទូរសព្ទ័លេខ 012 333 901 ប័ណ្ណសម្គាល់ជើងសាគយលេខ #699B ផុតសុពលភាពថ្ងៃទី 31 ខែ ធ្នូ ឆ្នាំ 2026 ។ដើម្បីបំពេញបែបបទបញេ្ចញទំនិញនៅ នាយកដ្ឋានរបបគយ ។
+       តាមឯកសារភ្ជាប់ដូចខាងក្រោម៖</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ២. Invoice &amp; Packing List លេខ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SMIL202507082324-P-C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ១. អញ្ញាតប័ណ្ណ(B/L, AWB, TWB)លេខ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>….............................</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        ៣. CERTIFICATE OF ORIGIN លេខ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>02251072600000246</t>
+    </r>
+  </si>
+  <si>
+    <t>…......................</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            សេចក្តីដូចមានចែងក្នុងកម្មវត្ថុនិងយោងខាងលើ ខ្ញុំបាទ/នាងខ្ញុំ ឈ្មោះ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>..............</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">  មានតួនាទី</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>ជាបុគ្គលិកផ្នែករដ្ឋាបាល</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>.......... MOTORS (CAMBODIA) CO., LTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> សូមស្នើសុំលោកប្រធានក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD ។ ដើម្បីដឹកជញ្ចូនឆ្លងកាត់ជាតិនូវ រថយន្តថ្មី ចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> ​គ្រឿង ចូលភណ្ឌាគារគយមានដែនកំណត់ ។</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Bill of Lading No.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>….......................</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Invoice/Packing List No.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>SMIL202507082324-P-C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">សំណើសុំផ្ទេររថយន្តចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> គ្រឿង ចេញពីភណ្ឌាគារគយមានដែនកំណត់សុវណ្ណភូមិ ទៅកាន់ទីតាំងបង្ហាញ (SHOWROOM) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>MAXUS ដែលមានអាសយដ្ឋាន #អគារ ១៧៤-១៧៥ (ប្លុក ១C, ១D និង ២C, ២D) នៃកាលីហ្វ័រញ៉ា សូសលហៅស៍ ផ្លូវ សហព័ន្ធរុស្ស៊ី សង្កាត់ទឹកថ្លា ខណ្ឌសែនសុខ រាជធានីភ្នំពេញ ជាទីតាំងបង្ហាញ (SHOWROOM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">របស់ក្រុមហ៊ុន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>.................... (CAMBODIA) CO., LTD។</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            សេចក្តីដូចមានចែងក្នុងកម្មវត្ថុ និងយោងខាងលើ ខ្ញុំបាទមានកិត្តិយសសូមគោរពស្នើរសុំ លោកប្រធានក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD អនុញ្ញាតអោយក្រុមហ៊ុនខ្ញុំបាទបានផ្ទេររថយន្តថ្មីចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> គ្រឿង ចេញពីភណ្ឌាគារគយមានដែនកំណត់ទៅកាន់ទីតាំងបង្ហាញ (SHOWROOM) ដូចមានខាងក្រោម៖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           អាស្រ័យដូចបានគោរពជំរាបជូនខាងលើ ក្រុមហ៊ុន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">…....MOTORS (CAMBODIA) CO., LTD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve">សុំទទួលខុសត្រូវទាំងស្រុងចំពោះមុខច្បាប់ ក្នុងករណីរថយន្ដចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> គ្រឿង ខាងលើធ្វើចរាចរណ៍មុនពេលដែលមិនទាន់បានបង់ពន្ធ។</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           សូមលោកប្រធាន មេត្តាអនុញ្ញាតអោយក្រុមហ៊ុនខ្ញុំបាទ បានផ្ទេររថយន្តថ្មីចំនួន </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> គ្រឿងចេញទៅទីតាំងបង្ហាញដោយក្តីអនុគ្រោះ ។</t>
+    </r>
+  </si>
+  <si>
+    <t>….....................</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- CERTIFICATE OF ORIGINAL No: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- PACKING LIST No: </t>
+  </si>
+  <si>
+    <t>- B/L No: {{BL_No}}</t>
+  </si>
+  <si>
+    <t>- INVOICE No: {{Inv}}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    - សរុបចំនួន {{Quantity}}</t>
     </r>
     <r>
       <rPr>
@@ -841,7 +2028,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Khmer OS Siemreap"/>
       </rPr>
-      <t>19,860 KGS</t>
+      <t xml:space="preserve"> UNITS</t>
     </r>
     <r>
       <rPr>
@@ -849,7 +2036,7 @@
         <color theme="1"/>
         <rFont val="Khmer OS Siemreap"/>
       </rPr>
-      <t xml:space="preserve"> តម្លៃសរុប </t>
+      <t xml:space="preserve"> ទម្ងន់សរុប </t>
     </r>
     <r>
       <rPr>
@@ -857,12 +2044,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Khmer OS Siemreap"/>
       </rPr>
-      <t>FOB: 1,343,736 CNY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                    - ផលិតនៅប្រទេសចិននាំចូលមកកម្ពុជាតាម </t>
+      <t>19,860 KGS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Khmer OS Siemreap"/>
+      </rPr>
+      <t xml:space="preserve"> តម្លៃសរុប </t>
     </r>
     <r>
       <rPr>
@@ -870,1211 +2060,11 @@
         <color rgb="FFFF0000"/>
         <rFont val="Khmer OS Siemreap"/>
       </rPr>
-      <t>មាត់ច្រកកំពង់ផែអន្តរជាតិភ្នំពេញ (បញ្ចេញទំនិញនៅមាត់ច្រកភណ្ឌាគារគយមានដែនកំណត់សុវណ្ណភូមិ)</t>
-    </r>
-  </si>
-  <si>
-    <t>…........MOTORS (CAMBODIA) CO., LTD</t>
-  </si>
-  <si>
-    <t>NO. …................................................., CAMBODIA
-VAT: …........................, TEL: +…........................</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- VAT No: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…...................................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- B/L No: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…........................................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                 តបតាមកម្មវត្ថុ និងយោងខាងលើ ខ្ញុំបាទតំណាងអោយក្រុមហ៊ុន</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>..............MOTORS (CAMBODIA) CO., LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>សូមគោរពស្នើសុំឯកឧត្តមរដ្ឋមន្ត្រីប្រតិភូមេត្តាអនុញ្ញាតិអោយអនុវត្តអត្រាពន្ឋអនុគ្រោះក្រោមកិច្ចព្រមព្រៀងពាណិជ្ជកម្មសេរីអាស៊ាន-ចិន (ACFTA-CO FORM E) ដូចយោងខាងលើចំពោះការនាំចូល:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                 ខ្ញុំបាទសូមធានាអះអាងថារាល់ការប្រកាសនិងឯកសារគាំទ្រខាងលើសុទ្ធសឹងជាពត៌មាននិងជាឯកសារត្រឹមត្រូវនិងពិតប្រាកដ។ក្នុងករណីរកឃើញថាពត៌មាននិងឯកសារទាំងនេះមានការក្លែងបន្លំខុសពីការពិតខ្ញុំបាទតំណាងអោយក្រុមហ៊ុន</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>..................MOTORS (CAMBODIA) CO., LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> សូមទទួលពិន័យនិងទោសទណ្ឌផ្សេងទៀតតាមបញ្ញត្តិច្បាប់ជាធរមាន។</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">សំណើសុំអនុញ្ញាតដើម្បីដឹកជញ្ចូនឆ្លងកាត់ជាតិនូវ រថយន្តថ្មី ចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> គ្រឿង (ចង្កូតឆ្វេង) ផ្ទុកក្នុងកុងតឺន័រចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ទូរ ពីមាត់ច្រក សាខាគយ និង</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>រដ្ឋាករកំពង់ផែអន្តរជាតិភ្នំពេញ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទៅកាន់ភណ្ឌាគារគយមានដែនកំណត់របស់ក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD ដោយព្យួរពន្ធ និងអាករ ។</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរ/លិខិតឆ្លងដែនលេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">AC5014016 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">  ទូរស័ព្ទលេខ:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> 093 544 566</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ជាប្រធាន/អនុប្រធាន ក្រុមហ៊ុន/សហគ្រាស:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SUVANNAPHUM INVESTMENT CO., LTD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        នៃក្រុមហ៊ុន/សហគ្រាស:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…...............MOTORS (CAMBODIA) CO., LTD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           ខ្ញុំបាទ/នាងខ្ញុំ  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">   អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរ/លិខិតឆ្លងដែនលេខ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>:…...............................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        អត្តសញ្ញាណកម្មសារពើពន្ធ(VAT)លេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…............................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទូរស័ព្ទលេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>….................................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        មានអត្តសញ្ញាណកម្មសារពើពន្ធ(VAT)លេខ:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>....</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>L001-901801901.............</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>........................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរ/លិខិតឆ្លងដែនលេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>190228973</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">   ទូរស័ព្ទលេខ:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>012 333 901</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       សម្រាប់មួយប្រតិវេទន៍គយឬច្រើនប្រតិបត្តិការនៅ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>……………………………………………………………………………………………</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ១. វិក្កយប័ត្រ(Invoice)លេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SMIL202507082324-P-C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ២. បញ្ជីវេចខ្ចប់(Packing List)លេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SMIL202507082324-P-C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ៣. អញ្ញាតប័ណ្ណ(B/L, AWB, TWB)លេខ:   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SHAWD075720</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   ឈ្មោះ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Muol"/>
-      </rPr>
-      <t>WONGMONGKOL SRESTTAWIN</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ឈ្មោះ …....................... </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ខ្ញុំបាទ/នាងខ្ញុំ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…...............</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">  ភេទ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">ប្រុស </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>មានអត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…........................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> មានតួនាទី</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ជាបុគ្គលិកផ្នែករដ្ឋាបាល …......... MOTORS (CAMBODIA) CO., LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT)លេខៈ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…...................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទូរសព្ទ័លេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>.....................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>។</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">          លោក </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ប៉ាង ចំរើន</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ភេទ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ប្រុស</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> សញ្ជាតិ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ខែ្មរ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> មាន ID Cards No. លេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>010033857 (01)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ចុះថ្ងៃទី  ២២ ខែ កុម្ភៈ ឆ្នាំ ២០១៦ និងផុតសុពលភាពដល់ថ្ងៃទី ២១ ខែ កុម្ភៈ ឆ្នាំ ២០២៦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទូរស័ព្ទលេខ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> 016 89 89 09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">  ដែលតំណាងអោយក្រុមហ៊ុន</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> SUVANNAPHUM INVESTMENT CO., LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ដែលមានលេខអត្តសញ្ញាណកម្មសារពើពន្ធអ.ត.បលេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>L001901801901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទីតាំងនៅផ្លូវជាតិលេខ ១ គីឡូម៉ែតលេខ ៤៦ ភូមិ សំរោងក្អែរ  ឃុំ សំរោងធំ ស្រុកកៀនស្វាយ ខេត្តកណ្តាល ដើម្បីមកធ្វើការទំនាក់ទំនង និងទទួលខុសត្រូវក្នុងការបំពេញបែបបទយកទំនិញចេញ-ចូលតាមមាត់ច្រកកំពង់ផែអន្តរជាតិភ្នំពេញ ដោយមានភ្ជាប់មកជាមូយឯកសារដូចខាងក្រោមនេះ៖</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">         ក្រុមហ៊ុនសូមការអនុញ្ញាតដល់សម្ថកិច្ចប្រចាំការនៅមាត់ច្រកឃ្លាំងទំនិញទីលាន កំពង់ផែស្វយ័តភ្នំពេញ មេត្តាទទួលស្គាល់ និងអនុញ្ញាតអោយលោក </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ប៉ាង ចំរើន</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> បានបំពេញបែបបទទំនិញចេញ-ចូល និងបញ្ចេញទំនិញពីកំពង់ផែស្វយ័តភ្នំពេញ  ព្រមទាំងសន្យាគោរពតាមច្បាប់ជាធរមាន។</t>
-    </r>
-  </si>
-  <si>
-    <t>…...........................</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ខ្ញុំបាទ/នាងខ្ញុំ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>...............</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">  ភេទ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ប្រុស</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> មានអត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>......................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> មានតួនាទី</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">ជាបុគ្គលិកផ្នែករដ្ឋាបាល ....................MOTORS (CAMBODIA) CO., LTD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT)លេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>................................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទូរសព្ទ័លេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>.......................</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> និងជាម្ចាស់ទំនិញ សូមផ្ទេរសិទ្ទិជូន លោក/លោកស្រី </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>WONGMONGKOL SRESTTAWIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> កាន់លិខិតឆ្លងដែនលេខ: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>AC5014016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទូរសព្ទ័លេខ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> 093 544 566</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ជាប្រធានក្រុមហ៊ុន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SUVANNAPHUM INVESTMENT CO., LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT) លេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>L001-901801901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ជានីតិបុគ្គលជើងសារគយដែលមានរូបវន្តបុគ្គលជើងសាគយតំណាងលោក/លោកស្រី </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ផេង សុវណ្ណា</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>190228973</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ទូរសព្ទ័លេខ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>012 333 901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ប័ណ្ណសម្គាល់ជើងសាគយលេខ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>#699B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ផុតសុពលភាពថ្ងៃទី</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> 31 ខែ ធ្នូ ឆ្នាំ 2026 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>។ដើម្បីបំពេញបែបបទបញេ្ចញទំនិញនៅ នាយកដ្ឋានរបបគយ ។
-       តាមឯកសារភ្ជាប់ដូចខាងក្រោម៖</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ១. អញ្ញាតប័ណ្ណ(B/L, AWB, TWB)លេខ: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SHAWD075720</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ឈ្មោះ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>…..................</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">        ខ្ញុំបាទ/នាងខ្ញុំ ...............  ភេទប្រុស មានអត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ...................... មានតួនាទីជាបុគ្គលិកផ្នែករដ្ឋាបាល ....................MOTORS (CAMBODIA) CO., LTD អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT)លេខៈ ................................ ទូរសព្ទ័លេខៈ ....................... និងជាម្ចាស់ទំនិញ សូមផ្ទេរសិទ្ទិជូន លោក/លោកស្រី WONGMONGKOL SRESTTAWIN កាន់លិខិតឆ្លងដែនលេខ: AC5014016 ទូរសព្ទ័លេខ 093 544 566 ជាប្រធានក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD អត្តសញ្ញាណកម្មសារពើពន្ធ (VAT) លេខៈ L001-901801901 ជានីតិបុគ្គលជើងសារគយដែលមានរូបវន្តបុគ្គលជើងសាគយតំណាងលោក/លោកស្រី ផេង សុវណ្ណា អត្តសញ្ញាណប័ណ្ណសញ្ជាតិខ្មែរលេខៈ 190228973 ទូរសព្ទ័លេខ 012 333 901 ប័ណ្ណសម្គាល់ជើងសាគយលេខ #699B ផុតសុពលភាពថ្ងៃទី 31 ខែ ធ្នូ ឆ្នាំ 2026 ។ដើម្បីបំពេញបែបបទបញេ្ចញទំនិញនៅ នាយកដ្ឋានរបបគយ ។
-       តាមឯកសារភ្ជាប់ដូចខាងក្រោម៖</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ២. Invoice &amp; Packing List លេខ: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SMIL202507082324-P-C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ១. អញ្ញាតប័ណ្ណ(B/L, AWB, TWB)លេខ: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>….............................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        ៣. CERTIFICATE OF ORIGIN លេខ: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>02251072600000246</t>
-    </r>
-  </si>
-  <si>
-    <t>…......................</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            សេចក្តីដូចមានចែងក្នុងកម្មវត្ថុនិងយោងខាងលើ ខ្ញុំបាទ/នាងខ្ញុំ ឈ្មោះ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>..............</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">  មានតួនាទី</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>ជាបុគ្គលិកផ្នែករដ្ឋាបាល</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>.......... MOTORS (CAMBODIA) CO., LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> សូមស្នើសុំលោកប្រធានក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD ។ ដើម្បីដឹកជញ្ចូនឆ្លងកាត់ជាតិនូវ រថយន្តថ្មី ចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> ​គ្រឿង ចូលភណ្ឌាគារគយមានដែនកំណត់ ។</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-Bill of Lading No.: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>….......................</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-Invoice/Packing List No.: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>SMIL202507082324-P-C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">សំណើសុំផ្ទេររថយន្តចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> គ្រឿង ចេញពីភណ្ឌាគារគយមានដែនកំណត់សុវណ្ណភូមិ ទៅកាន់ទីតាំងបង្ហាញ (SHOWROOM) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>MAXUS ដែលមានអាសយដ្ឋាន #អគារ ១៧៤-១៧៥ (ប្លុក ១C, ១D និង ២C, ២D) នៃកាលីហ្វ័រញ៉ា សូសលហៅស៍ ផ្លូវ សហព័ន្ធរុស្ស៊ី សង្កាត់ទឹកថ្លា ខណ្ឌសែនសុខ រាជធានីភ្នំពេញ ជាទីតាំងបង្ហាញ (SHOWROOM)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">របស់ក្រុមហ៊ុន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>.................... (CAMBODIA) CO., LTD។</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            សេចក្តីដូចមានចែងក្នុងកម្មវត្ថុ និងយោងខាងលើ ខ្ញុំបាទមានកិត្តិយសសូមគោរពស្នើរសុំ លោកប្រធានក្រុមហ៊ុន SUVANNAPHUM INVESTMENT CO., LTD អនុញ្ញាតអោយក្រុមហ៊ុនខ្ញុំបាទបានផ្ទេររថយន្តថ្មីចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> គ្រឿង ចេញពីភណ្ឌាគារគយមានដែនកំណត់ទៅកាន់ទីតាំងបង្ហាញ (SHOWROOM) ដូចមានខាងក្រោម៖</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           អាស្រ័យដូចបានគោរពជំរាបជូនខាងលើ ក្រុមហ៊ុន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">…....MOTORS (CAMBODIA) CO., LTD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve">សុំទទួលខុសត្រូវទាំងស្រុងចំពោះមុខច្បាប់ ក្នុងករណីរថយន្ដចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> គ្រឿង ខាងលើធ្វើចរាចរណ៍មុនពេលដែលមិនទាន់បានបង់ពន្ធ។</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           សូមលោកប្រធាន មេត្តាអនុញ្ញាតអោយក្រុមហ៊ុនខ្ញុំបាទ បានផ្ទេររថយន្តថ្មីចំនួន </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Khmer OS Siemreap"/>
-      </rPr>
-      <t xml:space="preserve"> គ្រឿងចេញទៅទីតាំងបង្ហាញដោយក្តីអនុគ្រោះ ។</t>
-    </r>
-  </si>
-  <si>
-    <t>….....................</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- CERTIFICATE OF ORIGINAL No: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- PACKING LIST No: </t>
-  </si>
-  <si>
-    <t>- INVOICE No:</t>
+      <t>FOB: 1,343,736 CNY</t>
+    </r>
+  </si>
+  <si>
+    <t>{{Rcv Date}}</t>
   </si>
 </sst>
 </file>
@@ -2879,15 +2869,45 @@
     </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2906,35 +2926,26 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2951,26 +2962,20 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2981,95 +2986,83 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3080,17 +3073,14 @@
     <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4850,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD2D64-6416-402D-A952-96AB9D1CC201}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4869,36 +4859,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29">
-      <c r="A1" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="A1" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
       <c r="H1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="101.5" customHeight="1" thickBot="1">
-      <c r="A2" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="A2" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A3" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="122"/>
+      <c r="A3" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="111"/>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
@@ -4908,15 +4898,15 @@
       <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="95.75" customHeight="1">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="82"/>
       <c r="I4" s="87"/>
     </row>
@@ -4924,14 +4914,14 @@
       <c r="A5" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
       <c r="H5" s="82"/>
       <c r="I5" s="87"/>
     </row>
@@ -4939,39 +4929,39 @@
       <c r="A6" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="90"/>
       <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="32.75" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="91"/>
       <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
       <c r="A8" s="92"/>
-      <c r="B8" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="115">
-        <v>45874</v>
+      <c r="B8" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115" t="s">
+        <v>165</v>
       </c>
       <c r="F8" s="115"/>
       <c r="G8" s="115"/>
@@ -4980,13 +4970,13 @@
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="115">
-        <v>45859</v>
       </c>
       <c r="F9" s="115"/>
       <c r="G9" s="115"/>
@@ -4994,13 +4984,13 @@
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="115">
-        <v>45859</v>
+      <c r="B10" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115" t="s">
+        <v>165</v>
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="115"/>
@@ -5008,13 +4998,13 @@
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1">
       <c r="A11" s="92"/>
-      <c r="B11" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="115">
-        <v>45861</v>
+      <c r="B11" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115" t="s">
+        <v>165</v>
       </c>
       <c r="F11" s="115"/>
       <c r="G11" s="115"/>
@@ -5022,13 +5012,13 @@
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1">
       <c r="A12" s="92"/>
-      <c r="B12" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="B12" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="115" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="F12" s="115"/>
       <c r="G12" s="115"/>
@@ -5036,7 +5026,7 @@
     </row>
     <row r="13" spans="1:9" ht="67.25" customHeight="1">
       <c r="A13" s="116" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" s="116"/>
       <c r="C13" s="116"/>
@@ -5047,99 +5037,99 @@
       <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="94"/>
+    </row>
+    <row r="15" spans="1:9" ht="37.25" customHeight="1">
+      <c r="A15" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="94"/>
+    </row>
+    <row r="16" spans="1:9" ht="37.25" customHeight="1">
+      <c r="A16" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" spans="1:9" ht="97.25" customHeight="1">
+      <c r="A17" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A18" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="94"/>
-    </row>
-    <row r="15" spans="1:9" ht="37.25" customHeight="1">
-      <c r="A15" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="94"/>
-    </row>
-    <row r="16" spans="1:9" ht="37.25" customHeight="1">
-      <c r="A16" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="96"/>
-    </row>
-    <row r="17" spans="1:9" ht="97.25" customHeight="1">
-      <c r="A17" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A18" s="108" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A19" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A19" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
       <c r="C20" s="80"/>
-      <c r="D20" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
+      <c r="D20" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:9" s="73" customFormat="1" ht="35.25" customHeight="1">
       <c r="A21" s="81"/>
       <c r="B21" s="81"/>
       <c r="C21" s="81"/>
-      <c r="D21" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
+      <c r="D21" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="83"/>
       <c r="I21" s="84"/>
     </row>
@@ -5147,25 +5137,27 @@
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="85"/>
       <c r="I22" s="84"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" customHeight="1">
       <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="55" t="s">
+        <v>165</v>
+      </c>
       <c r="C23" s="55"/>
-      <c r="D23" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
+      <c r="D23" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" customHeight="1">
@@ -5189,22 +5181,22 @@
       <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="21">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
       <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:9" ht="42.5" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
       <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:9" ht="63.75" customHeight="1">
@@ -5218,13 +5210,18 @@
     <row r="31" spans="1:9" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:D8"/>
@@ -5238,18 +5235,13 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.35" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -5267,7 +5259,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5285,88 +5277,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1">
-      <c r="A1" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
+      <c r="A1" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
       <c r="G1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="98" customHeight="1">
-      <c r="A2" s="131" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
+      <c r="A2" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="74.75" customHeight="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="114.5" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="B4" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="29.75" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="133">
+      <c r="C5" s="124"/>
+      <c r="D5" s="128">
         <v>45861</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="128"/>
       <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7" ht="29.75" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="133">
+      <c r="C6" s="124"/>
+      <c r="D6" s="128">
         <v>45859</v>
       </c>
-      <c r="E6" s="133"/>
+      <c r="E6" s="128"/>
       <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7" ht="117" customHeight="1">
-      <c r="A7" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="A7" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1">
@@ -5392,13 +5384,13 @@
     </row>
     <row r="9" spans="1:7" ht="66.5" customHeight="1">
       <c r="A9" s="66"/>
-      <c r="B9" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="B9" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="66.5" customHeight="1">
@@ -5406,19 +5398,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="F10" s="71" t="s">
         <v>92</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>93</v>
       </c>
       <c r="G10" s="67"/>
     </row>
@@ -5427,19 +5419,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="F11" s="71" t="s">
         <v>92</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>93</v>
       </c>
       <c r="G11" s="67"/>
     </row>
@@ -5448,19 +5440,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="F12" s="71" t="s">
         <v>92</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>93</v>
       </c>
       <c r="G12" s="67"/>
     </row>
@@ -5469,19 +5461,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="F13" s="71" t="s">
         <v>92</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>93</v>
       </c>
       <c r="G13" s="67"/>
     </row>
@@ -5490,19 +5482,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F14" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="67"/>
     </row>
@@ -5511,19 +5503,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F15" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="67"/>
     </row>
@@ -5532,19 +5524,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F16" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="67"/>
     </row>
@@ -5553,19 +5545,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F17" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="67"/>
     </row>
@@ -5574,19 +5566,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="67"/>
     </row>
@@ -5595,19 +5587,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F19" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="67"/>
     </row>
@@ -5616,19 +5608,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F20" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="67"/>
     </row>
@@ -5637,75 +5629,75 @@
         <v>12</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="F21" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:9" s="73" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A22" s="129" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
+      <c r="A22" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="72"/>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" s="73" customFormat="1" ht="38.75" customHeight="1">
-      <c r="A23" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="A23" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:9" s="73" customFormat="1" ht="36.5" customHeight="1">
       <c r="A24" s="74"/>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
       <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:9" ht="34.5" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
       <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:9" ht="21">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="126"/>
+      <c r="E26" s="133"/>
       <c r="F26" s="76"/>
       <c r="G26" s="58"/>
     </row>
@@ -5741,17 +5733,17 @@
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
-      <c r="E30" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="127"/>
+      <c r="E30" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="134"/>
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="74" customHeight="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="59"/>
       <c r="F31" s="77"/>
     </row>
@@ -5763,6 +5755,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -5775,11 +5772,6 @@
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
@@ -5794,7 +5786,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5813,54 +5805,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="A1" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
       <c r="H1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90.5" customHeight="1">
-      <c r="A2" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="A2" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:12" ht="108" customHeight="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="124.5" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="145" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
+      <c r="B4" s="138" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="45"/>
       <c r="L4" s="46"/>
     </row>
@@ -5869,10 +5861,10 @@
         <v>65</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
+        <v>153</v>
+      </c>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="140">
         <v>45861</v>
       </c>
@@ -5883,10 +5875,10 @@
     <row r="6" spans="1:12" ht="76.25" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
+        <v>154</v>
+      </c>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="140">
         <v>45859</v>
       </c>
@@ -5895,39 +5887,39 @@
       <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="126" customHeight="1">
-      <c r="A7" s="141" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
+      <c r="A7" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="125.75" customHeight="1">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:12" ht="97.5" customHeight="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="85.5" customHeight="1">
@@ -5945,11 +5937,11 @@
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:12" ht="46.5" customHeight="1">
@@ -5995,15 +5987,15 @@
       <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="44" customHeight="1">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1">
@@ -6014,8 +6006,8 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8" ht="74" customHeight="1">
@@ -6024,12 +6016,6 @@
     <row r="19" spans="1:8" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -6039,6 +6025,12 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.35" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
@@ -6056,7 +6048,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6071,41 +6063,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="92" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
+      <c r="A4" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -6120,12 +6112,12 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="A6" s="153" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
+      <c r="A6" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
       <c r="E6" s="37">
         <v>1</v>
       </c>
@@ -6138,12 +6130,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="153" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="A7" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
       <c r="J7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6155,11 +6147,11 @@
       <c r="A8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
       <c r="J8" s="22" t="s">
         <v>26</v>
       </c>
@@ -6168,12 +6160,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="153" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
+      <c r="A9" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
       <c r="J9" s="22" t="s">
         <v>28</v>
       </c>
@@ -6182,12 +6174,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
+      <c r="A10" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
       <c r="J10" s="22" t="s">
         <v>29</v>
       </c>
@@ -6196,59 +6188,59 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="A11" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
+      <c r="A11" s="146" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
+      <c r="A13" s="146" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
     </row>
     <row r="15" spans="1:11" ht="32" customHeight="1">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156" t="s">
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="158"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
     </row>
     <row r="16" spans="1:11" ht="19">
-      <c r="A16" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="A16" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
       <c r="E16" s="24">
         <v>1</v>
       </c>
@@ -6266,12 +6258,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="19">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
       <c r="J17" s="22">
         <v>2</v>
       </c>
@@ -6281,7 +6273,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="18">
@@ -6298,7 +6290,7 @@
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="18">
@@ -6314,7 +6306,7 @@
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="18">
@@ -6332,10 +6324,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="20">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="159"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
@@ -6348,12 +6340,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="19">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
       <c r="J22" s="22">
         <v>7</v>
       </c>
@@ -6362,29 +6354,29 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="19">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
     </row>
     <row r="24" spans="1:11" ht="132.75" customHeight="1">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:11" ht="44" customHeight="1">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:11" ht="23">
@@ -6419,12 +6411,12 @@
     </row>
     <row r="31" spans="1:11" ht="65" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="104"/>
       <c r="D31" s="100" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="38" customHeight="1">
@@ -6440,10 +6432,10 @@
     </row>
     <row r="36" spans="1:4" ht="24.75" customHeight="1"/>
     <row r="37" spans="1:4" ht="93.75" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="162"/>
     </row>
     <row r="38" spans="1:4" ht="30.75" customHeight="1">
       <c r="A38" s="152"/>
@@ -6452,118 +6444,118 @@
       <c r="D38" s="152"/>
     </row>
     <row r="39" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A39" s="150"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
     </row>
     <row r="40" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A40" s="147"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
     </row>
     <row r="41" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
     </row>
     <row r="42" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A42" s="147"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
     </row>
     <row r="43" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A43" s="147"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
     </row>
     <row r="44" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
     </row>
     <row r="45" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A45" s="147"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
     </row>
     <row r="46" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A46" s="147"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
     </row>
     <row r="47" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A47" s="151"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
     </row>
     <row r="48" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A48" s="149"/>
-      <c r="B48" s="149"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
     </row>
     <row r="49" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A49" s="147"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
     </row>
     <row r="50" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A50" s="147"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
     </row>
     <row r="51" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A51" s="147"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
     </row>
     <row r="52" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A52" s="147"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
     </row>
     <row r="53" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A53" s="148"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
+      <c r="A53" s="168"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
     </row>
     <row r="54" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A54" s="149"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
     </row>
     <row r="55" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A55" s="147"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
     </row>
     <row r="56" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A56" s="146"/>
-      <c r="B56" s="146"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
+      <c r="A56" s="167"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="167"/>
     </row>
     <row r="57" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A57" s="146"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
+      <c r="A57" s="167"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
     </row>
     <row r="58" spans="1:4" ht="23">
       <c r="A58" s="6"/>
@@ -6621,6 +6613,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6633,37 +6656,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.35" bottom="0.35" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
@@ -6682,7 +6674,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6693,11 +6685,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="92" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="172"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="169"/>
       <c r="D1" s="38" t="s">
         <v>8</v>
       </c>
@@ -6711,11 +6703,11 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="124.25" customHeight="1">
-      <c r="A3" s="148" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
+      <c r="A3" s="168" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="36.5" customHeight="1">
       <c r="A4" s="152" t="s">
@@ -6725,11 +6717,11 @@
       <c r="C4" s="152"/>
     </row>
     <row r="5" spans="1:8" ht="170.25" customHeight="1">
-      <c r="A5" s="169" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
+      <c r="A5" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
       <c r="G5">
         <v>1</v>
       </c>
@@ -6744,45 +6736,45 @@
       <c r="C6" s="99">
         <v>45861</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" ht="111" customHeight="1">
-      <c r="A7" s="169" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
+      <c r="A7" s="170" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="103.5" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="171"/>
+      <c r="C11" s="172"/>
     </row>
     <row r="12" spans="1:8" ht="60">
       <c r="A12" s="41" t="s">
@@ -6819,7 +6811,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6835,17 +6827,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
@@ -6863,7 +6855,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6876,11 +6868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="92" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="172"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="169"/>
       <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
@@ -6905,85 +6897,85 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="254.75" customHeight="1">
-      <c r="A5" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
+      <c r="A5" s="168" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
       <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A6" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="153"/>
+      <c r="A6" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="146"/>
       <c r="C6" s="18">
         <v>45861</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A7" s="175" t="e">
+      <c r="A7" s="174" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="18"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A8" s="175" t="e">
+      <c r="A8" s="174" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B8" s="175"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="3"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="55.25" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="174"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
@@ -6994,17 +6986,17 @@
     </row>
     <row r="15" spans="1:9" ht="34.25" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="174"/>
+      <c r="C15" s="173"/>
     </row>
     <row r="16" spans="1:9" ht="35.75" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="173"/>
+      <c r="C16" s="175"/>
     </row>
     <row r="17" spans="1:3" ht="23">
       <c r="A17" s="9"/>
@@ -7035,7 +7027,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29.5" customHeight="1">
@@ -7053,9 +7045,9 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="93.75" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="172"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="169"/>
     </row>
     <row r="27" spans="1:3" ht="30.75" customHeight="1">
       <c r="A27" s="152"/>
@@ -7063,99 +7055,99 @@
       <c r="C27" s="152"/>
     </row>
     <row r="28" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A28" s="150"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
     </row>
     <row r="30" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
     </row>
     <row r="31" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
     </row>
     <row r="32" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
     </row>
     <row r="33" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
     </row>
     <row r="34" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
+      <c r="A34" s="163"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
     </row>
     <row r="35" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
     </row>
     <row r="36" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A36" s="151"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
     </row>
     <row r="37" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A37" s="149"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
     </row>
     <row r="38" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A38" s="147"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="147"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
     </row>
     <row r="39" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="147"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
     </row>
     <row r="40" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A40" s="147"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
     </row>
     <row r="41" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
     </row>
     <row r="42" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
     </row>
     <row r="43" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A43" s="149"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="166"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
     </row>
     <row r="44" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
     </row>
     <row r="45" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
     </row>
     <row r="46" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A46" s="146"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
     </row>
     <row r="47" spans="1:3" ht="23">
       <c r="A47" s="6"/>
@@ -7204,6 +7196,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -7216,30 +7232,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
@@ -7255,7 +7247,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7268,11 +7260,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="92" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="172"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="169"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
@@ -7294,90 +7286,90 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="247.5" customHeight="1">
-      <c r="A5" s="148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
+      <c r="A5" s="168" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A6" s="147" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="147"/>
+      <c r="A6" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="163"/>
       <c r="C6" s="18">
         <v>45861</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A7" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="147"/>
+      <c r="A7" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="163"/>
       <c r="C7" s="18">
         <v>45859</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A8" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="153"/>
+      <c r="A8" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="146"/>
       <c r="C8" s="18">
         <v>45874</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="140" customHeight="1">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="174"/>
+      <c r="C12" s="173"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="23">
@@ -7433,9 +7425,9 @@
       <c r="A24" s="14"/>
     </row>
     <row r="25" spans="1:3" ht="93.75" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="172"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="169"/>
     </row>
     <row r="26" spans="1:3" ht="30.75" customHeight="1">
       <c r="A26" s="152"/>
@@ -7443,99 +7435,99 @@
       <c r="C26" s="152"/>
     </row>
     <row r="27" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A27" s="150"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
+      <c r="A27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
     </row>
     <row r="28" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
     </row>
     <row r="30" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
     </row>
     <row r="31" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
     </row>
     <row r="32" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
     </row>
     <row r="33" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
     </row>
     <row r="34" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
+      <c r="A34" s="163"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
     </row>
     <row r="35" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A35" s="151"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
     </row>
     <row r="36" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A36" s="149"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
     </row>
     <row r="37" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
     </row>
     <row r="38" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A38" s="147"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="147"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
     </row>
     <row r="39" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="147"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
     </row>
     <row r="40" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A40" s="147"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
     </row>
     <row r="41" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
+      <c r="A41" s="168"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
     </row>
     <row r="42" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
     </row>
     <row r="43" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A43" s="147"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
     </row>
     <row r="44" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A44" s="146"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="167"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
     </row>
     <row r="45" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
     </row>
     <row r="46" spans="1:3" ht="23">
       <c r="A46" s="6"/>
@@ -7584,6 +7576,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -7596,28 +7610,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
